--- a/console/Networking/iaas-network/aclMixinsXlsx/creator.xlsx
+++ b/console/Networking/iaas-network/aclMixinsXlsx/creator.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\京东云-返工\18. ACL国际化内容翻译确认\4. 确认后-柴玉梅\2. 客户确认后-上传Github版\ACL国际化内容翻译确认-CT-C-GTCOM Comment1106-R\aclMixinsXlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -36,18 +41,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ACL克隆后只将原有ACL出入规则进行克隆，您需要关联子网后该ACL才能生效。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>creator_i18nKey_2</t>
     </r>
   </si>
@@ -372,18 +365,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'所选私有网络中网络ACL已达限额，请切换私有网络或提交工单提升限额。'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>creator_i18nKey_16</t>
     </r>
   </si>
@@ -408,18 +389,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Only inbound and outbound rules of original ACL are cloned after ACL clone, the ACL only comes into effect until you have associated the subnet.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Region</t>
     </r>
   </si>
@@ -444,30 +413,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The name cannot be blank; it only supports Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”, with at most 32 characters.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Description</t>
     </r>
   </si>
@@ -480,30 +425,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Description only supports Chinese, numbers, capital and lowercase letters and English underline “_”, with at most 256 characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name cannot be blank</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>The name length cannot exceed 32 characters</t>
     </r>
   </si>
@@ -516,18 +437,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Name only supports Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Length cannot exceed 256 characters</t>
     </r>
   </si>
@@ -552,51 +461,209 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>‘Begin to Create ACL’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Creation Succeeded.'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘The network ACL in the selected virtual private cloud has reached quota, please switch the virtual private cloud or open ticket to increase quota.’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Please select VPC'</t>
     </r>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name only supports Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘Begin to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ACL’</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Creation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>succeeded.'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only inbound and outbound rules of original ACL are cloned after ACL clone operation, the ACL won't take effect until you have associated the ACL with a subnet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ACL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>克隆后只将原有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出入规则进行克隆，您需要关联子网后该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>才能生效。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Description only supports Chinese </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numbers, capital and lowercase letters and English underline “_”, with at most 256 characters</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所选私有网络中网络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已达限额，请切换私有网络或提交工单提升限额。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The name cannot be null , it only supports Chinese characters, numbers, capital and lowercase letters, English underline “_” and hyphen “-”, with at most 32 characters.</t>
+  </si>
+  <si>
+    <t>The name cannot be null</t>
+  </si>
+  <si>
+    <t>‘The network ACL in the selected Virtual Private Cloud has reached quota limitation, please switch to another Virtual Private Cloud or open ticket  to increase quota.’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -606,6 +673,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -632,8 +714,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -976,197 +1067,199 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C1:C1048576"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B16" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B14 A1 A16:B16 A15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>